--- a/src/java/sample/rcs-sample.xlsx
+++ b/src/java/sample/rcs-sample.xlsx
@@ -64,14 +64,6 @@
     <t>==========</t>
   </si>
   <si>
-    <t>原始数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">数据开始         </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rref(mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +101,34 @@
   </si>
   <si>
     <t>dr(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">数据开始    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +146,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -152,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,7 +528,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -494,7 +536,7 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -502,7 +544,7 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>161.5</v>
@@ -510,7 +552,7 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -518,7 +560,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -526,7 +568,7 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>9</v>
@@ -534,7 +576,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -542,7 +584,7 @@
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>-2.562E-2</v>
@@ -550,7 +592,7 @@
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
         <v>0.13907</v>
@@ -558,7 +600,7 @@
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3">
         <v>0.14141000000000001</v>
@@ -566,8 +608,8 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
+      <c r="A12" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1042,8 +1084,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>16</v>
+      <c r="A37" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
